--- a/QseEvolvingKg/notes/Aufwand_git.xlsx
+++ b/QseEvolvingKg/notes/Aufwand_git.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\GitHub\QseEvolvingKg\QseEvolvingKgWebApp\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\GitHub\QseEvolvingKg\QseEvolvingKg\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CA10B-B14E-4092-B52C-666E210D129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE8AC0-F128-4B0F-A9C9-D247763D8001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>Datum</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Projekt mergen</t>
+  </si>
+  <si>
+    <t>Projekt merge, Feedback einarbeiten</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,7 +2686,7 @@
       </c>
       <c r="G2">
         <f>SUM(B:B)</f>
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2725,7 +2728,7 @@
       </c>
       <c r="G4" s="2">
         <f>G2/G3</f>
-        <v>0.71466666666666667</v>
+        <v>0.71733333333333338</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2746,7 +2749,7 @@
       </c>
       <c r="G5">
         <f>G2/25</f>
-        <v>21.44</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4463,6 +4466,17 @@
       </c>
       <c r="C145" s="6" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B146" s="6">
+        <v>2</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/QseEvolvingKg/notes/Aufwand_git.xlsx
+++ b/QseEvolvingKg/notes/Aufwand_git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\GitHub\QseEvolvingKg\QseEvolvingKg\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE8AC0-F128-4B0F-A9C9-D247763D8001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40931465-673F-462F-B160-51BAD6D36650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>Datum</t>
   </si>
@@ -2636,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G2">
         <f>SUM(B:B)</f>
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="G4" s="2">
         <f>G2/G3</f>
-        <v>0.71733333333333338</v>
+        <v>0.72266666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G5">
         <f>G2/25</f>
-        <v>21.52</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4477,6 +4477,17 @@
       </c>
       <c r="C146" s="6" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B147" s="6">
+        <v>4</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
